--- a/Finflux Automation Excels/Client/4946-Close-Loan-On-Overpayment.xlsx
+++ b/Finflux Automation Excels/Client/4946-Close-Loan-On-Overpayment.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Center" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="85">
   <si>
     <t>CenterVillageName</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>Disbursement</t>
+  </si>
+  <si>
+    <t>ReceiptNumber</t>
   </si>
 </sst>
 </file>
@@ -1048,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,9 +1089,17 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>53</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1099,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,9 +1148,17 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4">
+        <v>7654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>53</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1547,8 +1566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Finflux Automation Excels/Client/4946-Close-Loan-On-Overpayment.xlsx
+++ b/Finflux Automation Excels/Client/4946-Close-Loan-On-Overpayment.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Center" sheetId="1" r:id="rId1"/>
@@ -290,7 +290,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,6 +325,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -358,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -393,6 +399,9 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1171,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,8 +1240,8 @@
       <c r="E3" s="13">
         <v>0</v>
       </c>
-      <c r="F3" s="13">
-        <v>0</v>
+      <c r="F3" s="17">
+        <v>63.11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1277,6 +1286,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1566,7 +1576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
